--- a/tmp_output/docked_raw/docked_raw_2022-03-01.xlsx
+++ b/tmp_output/docked_raw/docked_raw_2022-03-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="165">
   <si>
     <t>員編</t>
   </si>
@@ -473,192 +473,6 @@
     <t>INTWK0002202230169</t>
   </si>
   <si>
-    <t>4710201521919</t>
-  </si>
-  <si>
-    <t>8809707275214</t>
-  </si>
-  <si>
-    <t>8809707275221</t>
-  </si>
-  <si>
-    <t>8809707268131</t>
-  </si>
-  <si>
-    <t>8809612853484</t>
-  </si>
-  <si>
-    <t>8809612851565</t>
-  </si>
-  <si>
-    <t>8809612852449</t>
-  </si>
-  <si>
-    <t>8809612853934</t>
-  </si>
-  <si>
-    <t>8809612851350</t>
-  </si>
-  <si>
-    <t>8809612851329</t>
-  </si>
-  <si>
-    <t>8809612850339</t>
-  </si>
-  <si>
-    <t>8809707251942</t>
-  </si>
-  <si>
-    <t>8809612856614</t>
-  </si>
-  <si>
-    <t>8809612841894</t>
-  </si>
-  <si>
-    <t>8809612851862</t>
-  </si>
-  <si>
-    <t>8809612851619</t>
-  </si>
-  <si>
-    <t>8809612851213</t>
-  </si>
-  <si>
-    <t>8809612850391</t>
-  </si>
-  <si>
-    <t>8809612851633</t>
-  </si>
-  <si>
-    <t>8809612851510</t>
-  </si>
-  <si>
-    <t>8809612851695</t>
-  </si>
-  <si>
-    <t>8809707267325</t>
-  </si>
-  <si>
-    <t>8809612877855</t>
-  </si>
-  <si>
-    <t>8809612851220</t>
-  </si>
-  <si>
-    <t>8809707252352</t>
-  </si>
-  <si>
-    <t>8809707251973</t>
-  </si>
-  <si>
-    <t>8809612858366</t>
-  </si>
-  <si>
-    <t>8809612841962</t>
-  </si>
-  <si>
-    <t>8809612842068</t>
-  </si>
-  <si>
-    <t>8809612851503</t>
-  </si>
-  <si>
-    <t>8809612856584</t>
-  </si>
-  <si>
-    <t>8809707252819</t>
-  </si>
-  <si>
-    <t>8809707252833</t>
-  </si>
-  <si>
-    <t>8809707252321</t>
-  </si>
-  <si>
-    <t>8809707252710</t>
-  </si>
-  <si>
-    <t>8809707275276</t>
-  </si>
-  <si>
-    <t>8809516804384</t>
-  </si>
-  <si>
-    <t>8809652905631</t>
-  </si>
-  <si>
-    <t>8809612846240</t>
-  </si>
-  <si>
-    <t>4710679020075</t>
-  </si>
-  <si>
-    <t>4710679020112</t>
-  </si>
-  <si>
-    <t>4710679020013</t>
-  </si>
-  <si>
-    <t>4712918509761</t>
-  </si>
-  <si>
-    <t>4710281430897</t>
-  </si>
-  <si>
-    <t>4710281439838</t>
-  </si>
-  <si>
-    <t>4710281430903</t>
-  </si>
-  <si>
-    <t>6971326132987</t>
-  </si>
-  <si>
-    <t>5058707670007</t>
-  </si>
-  <si>
-    <t>6932169303033</t>
-  </si>
-  <si>
-    <t>6944284677937</t>
-  </si>
-  <si>
-    <t>4717044700242</t>
-  </si>
-  <si>
-    <t>4717044710166</t>
-  </si>
-  <si>
-    <t>4717044420027</t>
-  </si>
-  <si>
-    <t>4717044600993</t>
-  </si>
-  <si>
-    <t>4717044700150</t>
-  </si>
-  <si>
-    <t>4717044050026</t>
-  </si>
-  <si>
-    <t>4717044520000</t>
-  </si>
-  <si>
-    <t>4710623020106</t>
-  </si>
-  <si>
-    <t>4710623020236</t>
-  </si>
-  <si>
-    <t>4710623020243</t>
-  </si>
-  <si>
-    <t>4710623020014</t>
-  </si>
-  <si>
-    <t>4710623020113</t>
-  </si>
-  <si>
     <t>HSH630-M-B</t>
   </si>
   <si>
@@ -689,325 +503,10 @@
     <t>351AT07B2-GY</t>
   </si>
   <si>
-    <t>4901940039067</t>
-  </si>
-  <si>
-    <t>4901940111404</t>
-  </si>
-  <si>
-    <t>4711175006921</t>
-  </si>
-  <si>
-    <t>4902380135845</t>
-  </si>
-  <si>
-    <t>4902888544224</t>
-  </si>
-  <si>
-    <t>8936071070272</t>
-  </si>
-  <si>
-    <t>8936071070203</t>
-  </si>
-  <si>
-    <t>6151100035868</t>
-  </si>
-  <si>
-    <t>8936071070197</t>
-  </si>
-  <si>
-    <t>8936071070265</t>
-  </si>
-  <si>
-    <t>4710235000039</t>
-  </si>
-  <si>
-    <t>4710235000305</t>
-  </si>
-  <si>
-    <t>49698633</t>
-  </si>
-  <si>
-    <t>4901940039043</t>
-  </si>
-  <si>
-    <t>4710235000015</t>
-  </si>
-  <si>
-    <t>4902880051379</t>
-  </si>
-  <si>
-    <t>4902110250848</t>
-  </si>
-  <si>
-    <t>4902560170642</t>
-  </si>
-  <si>
-    <t>4902555270845</t>
-  </si>
-  <si>
-    <t>4571256849133</t>
-  </si>
-  <si>
-    <t>4970855000233</t>
-  </si>
-  <si>
-    <t>8809296883104</t>
-  </si>
-  <si>
-    <t>4970855000295</t>
-  </si>
-  <si>
-    <t>4970855000530</t>
-  </si>
-  <si>
-    <t>4901577042072</t>
-  </si>
-  <si>
-    <t>4904621043490</t>
-  </si>
-  <si>
-    <t>4970180100196</t>
-  </si>
-  <si>
-    <t>4901891245593</t>
-  </si>
-  <si>
-    <t>4901830161212</t>
-  </si>
-  <si>
-    <t>4976774681003</t>
-  </si>
-  <si>
-    <t>4902880051393</t>
-  </si>
-  <si>
-    <t>4901726014943</t>
-  </si>
-  <si>
-    <t>4979328623603</t>
-  </si>
-  <si>
-    <t>4970013510796</t>
-  </si>
-  <si>
-    <t>4901027514029</t>
-  </si>
-  <si>
-    <t>4901726014950</t>
-  </si>
-  <si>
-    <t>4904537002567</t>
-  </si>
-  <si>
-    <t>4975803668053</t>
-  </si>
-  <si>
-    <t>4901265127258</t>
-  </si>
-  <si>
-    <t>4902201424066</t>
-  </si>
-  <si>
-    <t>4710498998449</t>
-  </si>
-  <si>
-    <t>4710498991983</t>
-  </si>
-  <si>
-    <t>4977081882527</t>
-  </si>
-  <si>
-    <t>4969625116212</t>
-  </si>
-  <si>
-    <t>4901201103803</t>
-  </si>
-  <si>
-    <t>4712893200066</t>
-  </si>
-  <si>
-    <t>4978376370019</t>
-  </si>
-  <si>
-    <t>4717622994131</t>
-  </si>
-  <si>
-    <t>4901159604131</t>
-  </si>
-  <si>
-    <t>4717622993943</t>
-  </si>
-  <si>
-    <t>4970172184234</t>
-  </si>
-  <si>
-    <t>4975658015842</t>
-  </si>
-  <si>
-    <t>5690302115226</t>
-  </si>
-  <si>
-    <t>4901111275232</t>
-  </si>
-  <si>
-    <t>4901111275195</t>
-  </si>
-  <si>
-    <t>4902102130264</t>
-  </si>
-  <si>
-    <t>4901111479586</t>
-  </si>
-  <si>
-    <t>4562154327427</t>
-  </si>
-  <si>
-    <t>835143006479</t>
-  </si>
-  <si>
-    <t>4901111740198</t>
-  </si>
-  <si>
-    <t>4901184090527</t>
-  </si>
-  <si>
-    <t>4972370403056</t>
-  </si>
-  <si>
-    <t>4901111368521</t>
-  </si>
-  <si>
-    <t>4901027533815</t>
-  </si>
-  <si>
-    <t>4903101131511</t>
-  </si>
-  <si>
-    <t>4582100128281</t>
-  </si>
-  <si>
-    <t>4902110250831</t>
-  </si>
-  <si>
-    <t>4716609870017</t>
-  </si>
-  <si>
     <t>收下</t>
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>560</t>
-  </si>
-  <si>
-    <t>336</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>18</t>
   </si>
   <si>
     <t>2022-03-01</t>
@@ -1420,23 +919,23 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>152</v>
+      <c r="C2">
+        <v>4710201521919</v>
       </c>
       <c r="F2" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G2" t="s">
-        <v>293</v>
-      </c>
-      <c r="H2" t="s">
-        <v>294</v>
+        <v>163</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
       </c>
       <c r="I2" s="2">
         <v>44621.35835648148</v>
       </c>
       <c r="J2" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K2">
         <v>8</v>
@@ -1449,23 +948,23 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>153</v>
+      <c r="C3">
+        <v>8809707275214</v>
       </c>
       <c r="F3" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G3" t="s">
-        <v>293</v>
-      </c>
-      <c r="H3" t="s">
-        <v>294</v>
+        <v>163</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
       </c>
       <c r="I3" s="2">
         <v>44621.35825231481</v>
       </c>
       <c r="J3" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K3">
         <v>8</v>
@@ -1478,23 +977,23 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>154</v>
+      <c r="C4">
+        <v>8809707275221</v>
       </c>
       <c r="F4" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G4" t="s">
-        <v>293</v>
-      </c>
-      <c r="H4" t="s">
-        <v>294</v>
+        <v>163</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
       </c>
       <c r="I4" s="2">
         <v>44621.35835648148</v>
       </c>
       <c r="J4" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K4">
         <v>8</v>
@@ -1507,23 +1006,23 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>155</v>
+      <c r="C5">
+        <v>8809707268131</v>
       </c>
       <c r="F5" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G5" t="s">
-        <v>293</v>
-      </c>
-      <c r="H5" t="s">
-        <v>295</v>
+        <v>163</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
       </c>
       <c r="I5" s="2">
         <v>44621.35881944445</v>
       </c>
       <c r="J5" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K5">
         <v>8</v>
@@ -1536,23 +1035,23 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>156</v>
+      <c r="C6">
+        <v>8809612853484</v>
       </c>
       <c r="F6" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G6" t="s">
-        <v>293</v>
-      </c>
-      <c r="H6" t="s">
-        <v>295</v>
+        <v>163</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
       </c>
       <c r="I6" s="2">
         <v>44621.35914351852</v>
       </c>
       <c r="J6" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K6">
         <v>8</v>
@@ -1565,23 +1064,23 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>157</v>
+      <c r="C7">
+        <v>8809612851565</v>
       </c>
       <c r="F7" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H7" t="s">
-        <v>296</v>
+        <v>163</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
       </c>
       <c r="I7" s="2">
         <v>44621.359375</v>
       </c>
       <c r="J7" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K7">
         <v>8</v>
@@ -1594,23 +1093,23 @@
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>158</v>
+      <c r="C8">
+        <v>8809612852449</v>
       </c>
       <c r="F8" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G8" t="s">
-        <v>293</v>
-      </c>
-      <c r="H8" t="s">
-        <v>297</v>
+        <v>163</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
       </c>
       <c r="I8" s="2">
         <v>44621.35953703704</v>
       </c>
       <c r="J8" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K8">
         <v>8</v>
@@ -1623,23 +1122,23 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>159</v>
+      <c r="C9">
+        <v>8809612853934</v>
       </c>
       <c r="F9" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G9" t="s">
-        <v>293</v>
-      </c>
-      <c r="H9" t="s">
-        <v>296</v>
+        <v>163</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
       </c>
       <c r="I9" s="2">
         <v>44621.35971064815</v>
       </c>
       <c r="J9" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K9">
         <v>8</v>
@@ -1652,23 +1151,23 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>160</v>
+      <c r="C10">
+        <v>8809612851350</v>
       </c>
       <c r="F10" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G10" t="s">
-        <v>293</v>
-      </c>
-      <c r="H10" t="s">
-        <v>298</v>
+        <v>163</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
       </c>
       <c r="I10" s="2">
         <v>44621.35984953704</v>
       </c>
       <c r="J10" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K10">
         <v>8</v>
@@ -1681,23 +1180,23 @@
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
-        <v>161</v>
+      <c r="C11">
+        <v>8809612851329</v>
       </c>
       <c r="F11" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G11" t="s">
-        <v>293</v>
-      </c>
-      <c r="H11" t="s">
-        <v>296</v>
+        <v>163</v>
+      </c>
+      <c r="H11">
+        <v>15</v>
       </c>
       <c r="I11" s="2">
         <v>44621.35997685185</v>
       </c>
       <c r="J11" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K11">
         <v>8</v>
@@ -1710,23 +1209,23 @@
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
-        <v>162</v>
+      <c r="C12">
+        <v>8809612850339</v>
       </c>
       <c r="F12" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G12" t="s">
-        <v>293</v>
-      </c>
-      <c r="H12" t="s">
-        <v>298</v>
+        <v>163</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
       </c>
       <c r="I12" s="2">
         <v>44621.36009259259</v>
       </c>
       <c r="J12" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K12">
         <v>8</v>
@@ -1739,23 +1238,23 @@
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>163</v>
+      <c r="C13">
+        <v>8809707251942</v>
       </c>
       <c r="F13" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G13" t="s">
-        <v>293</v>
-      </c>
-      <c r="H13" t="s">
-        <v>299</v>
+        <v>163</v>
+      </c>
+      <c r="H13">
+        <v>150</v>
       </c>
       <c r="I13" s="2">
         <v>44621.36046296296</v>
       </c>
       <c r="J13" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K13">
         <v>8</v>
@@ -1768,23 +1267,23 @@
       <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
-        <v>164</v>
+      <c r="C14">
+        <v>8809612856614</v>
       </c>
       <c r="F14" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G14" t="s">
-        <v>293</v>
-      </c>
-      <c r="H14" t="s">
-        <v>297</v>
+        <v>163</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
       </c>
       <c r="I14" s="2">
         <v>44621.360625</v>
       </c>
       <c r="J14" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K14">
         <v>8</v>
@@ -1797,23 +1296,23 @@
       <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>165</v>
+      <c r="C15">
+        <v>8809612841894</v>
       </c>
       <c r="F15" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
-        <v>293</v>
-      </c>
-      <c r="H15" t="s">
-        <v>297</v>
+        <v>163</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
       </c>
       <c r="I15" s="2">
         <v>44621.3609375</v>
       </c>
       <c r="J15" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K15">
         <v>8</v>
@@ -1826,23 +1325,23 @@
       <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>166</v>
+      <c r="C16">
+        <v>8809612851862</v>
       </c>
       <c r="F16" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
-        <v>293</v>
-      </c>
-      <c r="H16" t="s">
-        <v>295</v>
+        <v>163</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
       </c>
       <c r="I16" s="2">
         <v>44621.36126157407</v>
       </c>
       <c r="J16" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K16">
         <v>8</v>
@@ -1855,23 +1354,23 @@
       <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
-        <v>167</v>
+      <c r="C17">
+        <v>8809612851619</v>
       </c>
       <c r="F17" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>293</v>
-      </c>
-      <c r="H17" t="s">
-        <v>300</v>
+        <v>163</v>
+      </c>
+      <c r="H17">
+        <v>25</v>
       </c>
       <c r="I17" s="2">
         <v>44621.36144675926</v>
       </c>
       <c r="J17" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K17">
         <v>8</v>
@@ -1884,23 +1383,23 @@
       <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="C18" t="s">
-        <v>168</v>
+      <c r="C18">
+        <v>8809612851213</v>
       </c>
       <c r="F18" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>293</v>
-      </c>
-      <c r="H18" t="s">
-        <v>301</v>
+        <v>163</v>
+      </c>
+      <c r="H18">
+        <v>40</v>
       </c>
       <c r="I18" s="2">
         <v>44621.36172453704</v>
       </c>
       <c r="J18" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K18">
         <v>8</v>
@@ -1913,23 +1412,23 @@
       <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="s">
-        <v>169</v>
+      <c r="C19">
+        <v>8809612850391</v>
       </c>
       <c r="F19" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G19" t="s">
-        <v>293</v>
-      </c>
-      <c r="H19" t="s">
-        <v>295</v>
+        <v>163</v>
+      </c>
+      <c r="H19">
+        <v>20</v>
       </c>
       <c r="I19" s="2">
         <v>44621.36185185185</v>
       </c>
       <c r="J19" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K19">
         <v>8</v>
@@ -1942,23 +1441,23 @@
       <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" t="s">
-        <v>170</v>
+      <c r="C20">
+        <v>8809612851633</v>
       </c>
       <c r="F20" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G20" t="s">
-        <v>293</v>
-      </c>
-      <c r="H20" t="s">
-        <v>297</v>
+        <v>163</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
       </c>
       <c r="I20" s="2">
         <v>44621.36232638889</v>
       </c>
       <c r="J20" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K20">
         <v>8</v>
@@ -1971,23 +1470,23 @@
       <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="s">
-        <v>171</v>
+      <c r="C21">
+        <v>8809612851510</v>
       </c>
       <c r="F21" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G21" t="s">
-        <v>293</v>
-      </c>
-      <c r="H21" t="s">
-        <v>297</v>
+        <v>163</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
       </c>
       <c r="I21" s="2">
         <v>44621.36253472222</v>
       </c>
       <c r="J21" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K21">
         <v>8</v>
@@ -2000,23 +1499,23 @@
       <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="s">
-        <v>172</v>
+      <c r="C22">
+        <v>8809612851695</v>
       </c>
       <c r="F22" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G22" t="s">
-        <v>293</v>
-      </c>
-      <c r="H22" t="s">
-        <v>302</v>
+        <v>163</v>
+      </c>
+      <c r="H22">
+        <v>13</v>
       </c>
       <c r="I22" s="2">
         <v>44621.36265046296</v>
       </c>
       <c r="J22" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K22">
         <v>8</v>
@@ -2029,23 +1528,23 @@
       <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" t="s">
-        <v>173</v>
+      <c r="C23">
+        <v>8809707267325</v>
       </c>
       <c r="F23" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G23" t="s">
-        <v>293</v>
-      </c>
-      <c r="H23" t="s">
-        <v>298</v>
+        <v>163</v>
+      </c>
+      <c r="H23">
+        <v>30</v>
       </c>
       <c r="I23" s="2">
         <v>44621.36297453703</v>
       </c>
       <c r="J23" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K23">
         <v>8</v>
@@ -2058,23 +1557,23 @@
       <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="C24" t="s">
-        <v>174</v>
+      <c r="C24">
+        <v>8809612877855</v>
       </c>
       <c r="F24" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G24" t="s">
-        <v>293</v>
-      </c>
-      <c r="H24" t="s">
-        <v>303</v>
+        <v>163</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
       </c>
       <c r="I24" s="2">
         <v>44621.3632175926</v>
       </c>
       <c r="J24" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K24">
         <v>8</v>
@@ -2087,23 +1586,23 @@
       <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="C25" t="s">
-        <v>175</v>
+      <c r="C25">
+        <v>8809612851220</v>
       </c>
       <c r="F25" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G25" t="s">
-        <v>293</v>
-      </c>
-      <c r="H25" t="s">
-        <v>295</v>
+        <v>163</v>
+      </c>
+      <c r="H25">
+        <v>20</v>
       </c>
       <c r="I25" s="2">
         <v>44621.3634375</v>
       </c>
       <c r="J25" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K25">
         <v>8</v>
@@ -2116,23 +1615,23 @@
       <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" t="s">
-        <v>176</v>
+      <c r="C26">
+        <v>8809707252352</v>
       </c>
       <c r="F26" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G26" t="s">
-        <v>293</v>
-      </c>
-      <c r="H26" t="s">
-        <v>304</v>
+        <v>163</v>
+      </c>
+      <c r="H26">
+        <v>168</v>
       </c>
       <c r="I26" s="2">
         <v>44621.36444444444</v>
       </c>
       <c r="J26" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K26">
         <v>8</v>
@@ -2145,23 +1644,23 @@
       <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="C27" t="s">
-        <v>177</v>
+      <c r="C27">
+        <v>8809707251973</v>
       </c>
       <c r="F27" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G27" t="s">
-        <v>293</v>
-      </c>
-      <c r="H27" t="s">
-        <v>305</v>
+        <v>163</v>
+      </c>
+      <c r="H27">
+        <v>80</v>
       </c>
       <c r="I27" s="2">
         <v>44621.36483796296</v>
       </c>
       <c r="J27" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K27">
         <v>8</v>
@@ -2174,23 +1673,23 @@
       <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="C28" t="s">
-        <v>178</v>
+      <c r="C28">
+        <v>8809612858366</v>
       </c>
       <c r="F28" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G28" t="s">
-        <v>293</v>
-      </c>
-      <c r="H28" t="s">
-        <v>295</v>
+        <v>163</v>
+      </c>
+      <c r="H28">
+        <v>20</v>
       </c>
       <c r="I28" s="2">
         <v>44621.36494212963</v>
       </c>
       <c r="J28" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K28">
         <v>8</v>
@@ -2203,23 +1702,23 @@
       <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="C29" t="s">
-        <v>179</v>
+      <c r="C29">
+        <v>8809612841962</v>
       </c>
       <c r="F29" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G29" t="s">
-        <v>293</v>
-      </c>
-      <c r="H29" t="s">
-        <v>306</v>
+        <v>163</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
       </c>
       <c r="I29" s="2">
         <v>44621.36520833334</v>
       </c>
       <c r="J29" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K29">
         <v>8</v>
@@ -2232,23 +1731,23 @@
       <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="C30" t="s">
-        <v>180</v>
+      <c r="C30">
+        <v>8809612842068</v>
       </c>
       <c r="F30" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G30" t="s">
-        <v>293</v>
-      </c>
-      <c r="H30" t="s">
-        <v>297</v>
+        <v>163</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
       </c>
       <c r="I30" s="2">
         <v>44621.36532407408</v>
       </c>
       <c r="J30" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K30">
         <v>8</v>
@@ -2261,23 +1760,23 @@
       <c r="B31" t="s">
         <v>40</v>
       </c>
-      <c r="C31" t="s">
-        <v>181</v>
+      <c r="C31">
+        <v>8809612851503</v>
       </c>
       <c r="F31" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G31" t="s">
-        <v>293</v>
-      </c>
-      <c r="H31" t="s">
-        <v>295</v>
+        <v>163</v>
+      </c>
+      <c r="H31">
+        <v>20</v>
       </c>
       <c r="I31" s="2">
         <v>44621.36537037037</v>
       </c>
       <c r="J31" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K31">
         <v>8</v>
@@ -2290,23 +1789,23 @@
       <c r="B32" t="s">
         <v>41</v>
       </c>
-      <c r="C32" t="s">
-        <v>182</v>
+      <c r="C32">
+        <v>8809612856584</v>
       </c>
       <c r="F32" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G32" t="s">
-        <v>293</v>
-      </c>
-      <c r="H32" t="s">
-        <v>297</v>
+        <v>163</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
       </c>
       <c r="I32" s="2">
         <v>44621.36563657408</v>
       </c>
       <c r="J32" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K32">
         <v>8</v>
@@ -2319,23 +1818,23 @@
       <c r="B33" t="s">
         <v>42</v>
       </c>
-      <c r="C33" t="s">
-        <v>183</v>
+      <c r="C33">
+        <v>8809707252819</v>
       </c>
       <c r="F33" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G33" t="s">
-        <v>293</v>
-      </c>
-      <c r="H33" t="s">
-        <v>299</v>
+        <v>163</v>
+      </c>
+      <c r="H33">
+        <v>150</v>
       </c>
       <c r="I33" s="2">
         <v>44621.36585648148</v>
       </c>
       <c r="J33" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K33">
         <v>8</v>
@@ -2348,23 +1847,23 @@
       <c r="B34" t="s">
         <v>43</v>
       </c>
-      <c r="C34" t="s">
-        <v>184</v>
+      <c r="C34">
+        <v>8809707252833</v>
       </c>
       <c r="F34" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G34" t="s">
-        <v>293</v>
-      </c>
-      <c r="H34" t="s">
-        <v>294</v>
+        <v>163</v>
+      </c>
+      <c r="H34">
+        <v>50</v>
       </c>
       <c r="I34" s="2">
         <v>44621.36619212963</v>
       </c>
       <c r="J34" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K34">
         <v>8</v>
@@ -2377,23 +1876,23 @@
       <c r="B35" t="s">
         <v>44</v>
       </c>
-      <c r="C35" t="s">
-        <v>185</v>
+      <c r="C35">
+        <v>8809707252321</v>
       </c>
       <c r="F35" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G35" t="s">
-        <v>293</v>
-      </c>
-      <c r="H35" t="s">
-        <v>307</v>
+        <v>163</v>
+      </c>
+      <c r="H35">
+        <v>500</v>
       </c>
       <c r="I35" s="2">
         <v>44621.3662962963</v>
       </c>
       <c r="J35" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K35">
         <v>8</v>
@@ -2406,23 +1905,23 @@
       <c r="B36" t="s">
         <v>45</v>
       </c>
-      <c r="C36" t="s">
-        <v>186</v>
+      <c r="C36">
+        <v>8809707252710</v>
       </c>
       <c r="F36" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G36" t="s">
-        <v>293</v>
-      </c>
-      <c r="H36" t="s">
-        <v>298</v>
+        <v>163</v>
+      </c>
+      <c r="H36">
+        <v>30</v>
       </c>
       <c r="I36" s="2">
         <v>44621.36644675926</v>
       </c>
       <c r="J36" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K36">
         <v>8</v>
@@ -2435,23 +1934,23 @@
       <c r="B37" t="s">
         <v>46</v>
       </c>
-      <c r="C37" t="s">
-        <v>187</v>
+      <c r="C37">
+        <v>8809707275276</v>
       </c>
       <c r="F37" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G37" t="s">
-        <v>293</v>
-      </c>
-      <c r="H37" t="s">
-        <v>305</v>
+        <v>163</v>
+      </c>
+      <c r="H37">
+        <v>80</v>
       </c>
       <c r="I37" s="2">
         <v>44621.3671412037</v>
       </c>
       <c r="J37" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K37">
         <v>8</v>
@@ -2464,23 +1963,23 @@
       <c r="B38" t="s">
         <v>47</v>
       </c>
-      <c r="C38" t="s">
-        <v>188</v>
+      <c r="C38">
+        <v>8809516804384</v>
       </c>
       <c r="F38" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G38" t="s">
-        <v>293</v>
-      </c>
-      <c r="H38" t="s">
-        <v>297</v>
+        <v>163</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
       </c>
       <c r="I38" s="2">
         <v>44621.36732638889</v>
       </c>
       <c r="J38" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K38">
         <v>8</v>
@@ -2493,23 +1992,23 @@
       <c r="B39" t="s">
         <v>48</v>
       </c>
-      <c r="C39" t="s">
-        <v>189</v>
+      <c r="C39">
+        <v>8809652905631</v>
       </c>
       <c r="F39" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G39" t="s">
-        <v>293</v>
-      </c>
-      <c r="H39" t="s">
-        <v>308</v>
+        <v>163</v>
+      </c>
+      <c r="H39">
+        <v>100</v>
       </c>
       <c r="I39" s="2">
         <v>44621.3677662037</v>
       </c>
       <c r="J39" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K39">
         <v>8</v>
@@ -2522,23 +2021,23 @@
       <c r="B40" t="s">
         <v>49</v>
       </c>
-      <c r="C40" t="s">
-        <v>190</v>
+      <c r="C40">
+        <v>8809612846240</v>
       </c>
       <c r="F40" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G40" t="s">
-        <v>293</v>
-      </c>
-      <c r="H40" t="s">
-        <v>299</v>
+        <v>163</v>
+      </c>
+      <c r="H40">
+        <v>150</v>
       </c>
       <c r="I40" s="2">
         <v>44621.36788194445</v>
       </c>
       <c r="J40" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K40">
         <v>8</v>
@@ -2551,23 +2050,23 @@
       <c r="B41" t="s">
         <v>50</v>
       </c>
-      <c r="C41" t="s">
-        <v>191</v>
+      <c r="C41">
+        <v>4710679020075</v>
       </c>
       <c r="F41" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G41" t="s">
-        <v>293</v>
-      </c>
-      <c r="H41" t="s">
-        <v>309</v>
+        <v>163</v>
+      </c>
+      <c r="H41">
+        <v>560</v>
       </c>
       <c r="I41" s="2">
         <v>44621.38076388889</v>
       </c>
       <c r="J41" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K41">
         <v>9</v>
@@ -2580,23 +2079,23 @@
       <c r="B42" t="s">
         <v>51</v>
       </c>
-      <c r="C42" t="s">
-        <v>192</v>
+      <c r="C42">
+        <v>4710679020112</v>
       </c>
       <c r="F42" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G42" t="s">
-        <v>293</v>
-      </c>
-      <c r="H42" t="s">
-        <v>310</v>
+        <v>163</v>
+      </c>
+      <c r="H42">
+        <v>336</v>
       </c>
       <c r="I42" s="2">
         <v>44621.38204861111</v>
       </c>
       <c r="J42" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K42">
         <v>9</v>
@@ -2609,23 +2108,23 @@
       <c r="B43" t="s">
         <v>52</v>
       </c>
-      <c r="C43" t="s">
-        <v>193</v>
+      <c r="C43">
+        <v>4710679020013</v>
       </c>
       <c r="F43" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G43" t="s">
-        <v>293</v>
-      </c>
-      <c r="H43" t="s">
-        <v>311</v>
+        <v>163</v>
+      </c>
+      <c r="H43">
+        <v>280</v>
       </c>
       <c r="I43" s="2">
         <v>44621.38209490741</v>
       </c>
       <c r="J43" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K43">
         <v>9</v>
@@ -2638,23 +2137,23 @@
       <c r="B44" t="s">
         <v>53</v>
       </c>
-      <c r="C44" t="s">
-        <v>194</v>
+      <c r="C44">
+        <v>4712918509761</v>
       </c>
       <c r="F44" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G44" t="s">
-        <v>293</v>
-      </c>
-      <c r="H44" t="s">
-        <v>308</v>
+        <v>163</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
       </c>
       <c r="I44" s="2">
         <v>44621.38292824074</v>
       </c>
       <c r="J44" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K44">
         <v>9</v>
@@ -2667,23 +2166,23 @@
       <c r="B45" t="s">
         <v>54</v>
       </c>
-      <c r="C45" t="s">
-        <v>195</v>
+      <c r="C45">
+        <v>4710281430897</v>
       </c>
       <c r="F45" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G45" t="s">
-        <v>293</v>
-      </c>
-      <c r="H45" t="s">
-        <v>295</v>
+        <v>163</v>
+      </c>
+      <c r="H45">
+        <v>20</v>
       </c>
       <c r="I45" s="2">
         <v>44621.38481481482</v>
       </c>
       <c r="J45" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K45">
         <v>9</v>
@@ -2696,23 +2195,23 @@
       <c r="B46" t="s">
         <v>55</v>
       </c>
-      <c r="C46" t="s">
-        <v>196</v>
+      <c r="C46">
+        <v>4710281439838</v>
       </c>
       <c r="F46" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G46" t="s">
-        <v>293</v>
-      </c>
-      <c r="H46" t="s">
-        <v>298</v>
+        <v>163</v>
+      </c>
+      <c r="H46">
+        <v>30</v>
       </c>
       <c r="I46" s="2">
         <v>44621.38579861111</v>
       </c>
       <c r="J46" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K46">
         <v>9</v>
@@ -2725,23 +2224,23 @@
       <c r="B47" t="s">
         <v>56</v>
       </c>
-      <c r="C47" t="s">
-        <v>197</v>
+      <c r="C47">
+        <v>4710281430903</v>
       </c>
       <c r="F47" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G47" t="s">
-        <v>293</v>
-      </c>
-      <c r="H47" t="s">
-        <v>298</v>
+        <v>163</v>
+      </c>
+      <c r="H47">
+        <v>30</v>
       </c>
       <c r="I47" s="2">
         <v>44621.3865162037</v>
       </c>
       <c r="J47" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K47">
         <v>9</v>
@@ -2754,23 +2253,23 @@
       <c r="B48" t="s">
         <v>57</v>
       </c>
-      <c r="C48" t="s">
-        <v>198</v>
+      <c r="C48">
+        <v>6971326132987</v>
       </c>
       <c r="F48" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G48" t="s">
-        <v>293</v>
-      </c>
-      <c r="H48" t="s">
-        <v>308</v>
+        <v>163</v>
+      </c>
+      <c r="H48">
+        <v>100</v>
       </c>
       <c r="I48" s="2">
         <v>44621.39628472222</v>
       </c>
       <c r="J48" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K48">
         <v>9</v>
@@ -2783,23 +2282,23 @@
       <c r="B49" t="s">
         <v>58</v>
       </c>
-      <c r="C49" t="s">
-        <v>199</v>
+      <c r="C49">
+        <v>5058707670007</v>
       </c>
       <c r="F49" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G49" t="s">
-        <v>293</v>
-      </c>
-      <c r="H49" t="s">
-        <v>301</v>
+        <v>163</v>
+      </c>
+      <c r="H49">
+        <v>40</v>
       </c>
       <c r="I49" s="2">
         <v>44621.39655092593</v>
       </c>
       <c r="J49" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K49">
         <v>9</v>
@@ -2813,19 +2312,19 @@
         <v>59</v>
       </c>
       <c r="F50" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G50" t="s">
-        <v>293</v>
-      </c>
-      <c r="H50" t="s">
-        <v>301</v>
+        <v>163</v>
+      </c>
+      <c r="H50">
+        <v>40</v>
       </c>
       <c r="I50" s="2">
         <v>44621.39655092593</v>
       </c>
       <c r="J50" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K50">
         <v>9</v>
@@ -2838,20 +2337,20 @@
       <c r="B51" t="s">
         <v>60</v>
       </c>
-      <c r="C51" t="s">
-        <v>200</v>
+      <c r="C51">
+        <v>6932169303033</v>
       </c>
       <c r="F51" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G51" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
       <c r="I51" s="2">
         <v>44621.40002314815</v>
       </c>
       <c r="J51" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K51">
         <v>9</v>
@@ -2864,20 +2363,20 @@
       <c r="B52" t="s">
         <v>61</v>
       </c>
-      <c r="C52" t="s">
-        <v>201</v>
+      <c r="C52">
+        <v>6944284677937</v>
       </c>
       <c r="F52" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G52" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
       <c r="I52" s="2">
         <v>44621.40008101852</v>
       </c>
       <c r="J52" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K52">
         <v>9</v>
@@ -2890,23 +2389,23 @@
       <c r="B53" t="s">
         <v>62</v>
       </c>
-      <c r="C53" t="s">
-        <v>202</v>
+      <c r="C53">
+        <v>4717044700242</v>
       </c>
       <c r="F53" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G53" t="s">
-        <v>293</v>
-      </c>
-      <c r="H53" t="s">
-        <v>312</v>
+        <v>163</v>
+      </c>
+      <c r="H53">
+        <v>12</v>
       </c>
       <c r="I53" s="2">
         <v>44621.40748842592</v>
       </c>
       <c r="J53" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K53">
         <v>9</v>
@@ -2919,23 +2418,23 @@
       <c r="B54" t="s">
         <v>63</v>
       </c>
-      <c r="C54" t="s">
-        <v>203</v>
+      <c r="C54">
+        <v>4717044710166</v>
       </c>
       <c r="F54" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G54" t="s">
-        <v>293</v>
-      </c>
-      <c r="H54" t="s">
-        <v>312</v>
+        <v>163</v>
+      </c>
+      <c r="H54">
+        <v>12</v>
       </c>
       <c r="I54" s="2">
         <v>44621.40758101852</v>
       </c>
       <c r="J54" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K54">
         <v>9</v>
@@ -2948,23 +2447,23 @@
       <c r="B55" t="s">
         <v>64</v>
       </c>
-      <c r="C55" t="s">
-        <v>204</v>
+      <c r="C55">
+        <v>4717044420027</v>
       </c>
       <c r="F55" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G55" t="s">
-        <v>293</v>
-      </c>
-      <c r="H55" t="s">
-        <v>312</v>
+        <v>163</v>
+      </c>
+      <c r="H55">
+        <v>12</v>
       </c>
       <c r="I55" s="2">
         <v>44621.40768518519</v>
       </c>
       <c r="J55" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K55">
         <v>9</v>
@@ -2977,23 +2476,23 @@
       <c r="B56" t="s">
         <v>65</v>
       </c>
-      <c r="C56" t="s">
-        <v>205</v>
+      <c r="C56">
+        <v>4717044600993</v>
       </c>
       <c r="F56" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G56" t="s">
-        <v>293</v>
-      </c>
-      <c r="H56" t="s">
-        <v>312</v>
+        <v>163</v>
+      </c>
+      <c r="H56">
+        <v>12</v>
       </c>
       <c r="I56" s="2">
         <v>44621.40775462963</v>
       </c>
       <c r="J56" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K56">
         <v>9</v>
@@ -3006,23 +2505,23 @@
       <c r="B57" t="s">
         <v>66</v>
       </c>
-      <c r="C57" t="s">
-        <v>206</v>
+      <c r="C57">
+        <v>4717044700150</v>
       </c>
       <c r="F57" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G57" t="s">
-        <v>293</v>
-      </c>
-      <c r="H57" t="s">
-        <v>295</v>
+        <v>163</v>
+      </c>
+      <c r="H57">
+        <v>20</v>
       </c>
       <c r="I57" s="2">
         <v>44621.40788194445</v>
       </c>
       <c r="J57" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K57">
         <v>9</v>
@@ -3035,23 +2534,23 @@
       <c r="B58" t="s">
         <v>67</v>
       </c>
-      <c r="C58" t="s">
-        <v>207</v>
+      <c r="C58">
+        <v>4717044050026</v>
       </c>
       <c r="F58" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G58" t="s">
-        <v>293</v>
-      </c>
-      <c r="H58" t="s">
-        <v>313</v>
+        <v>163</v>
+      </c>
+      <c r="H58">
+        <v>6</v>
       </c>
       <c r="I58" s="2">
         <v>44621.40877314815</v>
       </c>
       <c r="J58" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K58">
         <v>9</v>
@@ -3064,23 +2563,23 @@
       <c r="B59" t="s">
         <v>68</v>
       </c>
-      <c r="C59" t="s">
-        <v>208</v>
+      <c r="C59">
+        <v>4717044520000</v>
       </c>
       <c r="F59" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G59" t="s">
-        <v>293</v>
-      </c>
-      <c r="H59" t="s">
-        <v>313</v>
+        <v>163</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
       </c>
       <c r="I59" s="2">
         <v>44621.40907407407</v>
       </c>
       <c r="J59" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K59">
         <v>9</v>
@@ -3093,23 +2592,23 @@
       <c r="B60" t="s">
         <v>69</v>
       </c>
-      <c r="C60" t="s">
-        <v>209</v>
+      <c r="C60">
+        <v>4710623020106</v>
       </c>
       <c r="F60" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G60" t="s">
-        <v>293</v>
-      </c>
-      <c r="H60" t="s">
-        <v>314</v>
+        <v>163</v>
+      </c>
+      <c r="H60">
+        <v>16</v>
       </c>
       <c r="I60" s="2">
         <v>44621.41038194444</v>
       </c>
       <c r="J60" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K60">
         <v>9</v>
@@ -3122,23 +2621,23 @@
       <c r="B61" t="s">
         <v>70</v>
       </c>
-      <c r="C61" t="s">
-        <v>210</v>
+      <c r="C61">
+        <v>4710623020236</v>
       </c>
       <c r="F61" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G61" t="s">
-        <v>293</v>
-      </c>
-      <c r="H61" t="s">
-        <v>315</v>
+        <v>163</v>
+      </c>
+      <c r="H61">
+        <v>72</v>
       </c>
       <c r="I61" s="2">
         <v>44621.41056712963</v>
       </c>
       <c r="J61" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K61">
         <v>9</v>
@@ -3151,23 +2650,23 @@
       <c r="B62" t="s">
         <v>71</v>
       </c>
-      <c r="C62" t="s">
-        <v>211</v>
+      <c r="C62">
+        <v>4710623020243</v>
       </c>
       <c r="F62" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G62" t="s">
-        <v>293</v>
-      </c>
-      <c r="H62" t="s">
-        <v>314</v>
+        <v>163</v>
+      </c>
+      <c r="H62">
+        <v>16</v>
       </c>
       <c r="I62" s="2">
         <v>44621.41108796297</v>
       </c>
       <c r="J62" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K62">
         <v>9</v>
@@ -3180,23 +2679,23 @@
       <c r="B63" t="s">
         <v>72</v>
       </c>
-      <c r="C63" t="s">
-        <v>212</v>
+      <c r="C63">
+        <v>4710623020014</v>
       </c>
       <c r="F63" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G63" t="s">
-        <v>293</v>
-      </c>
-      <c r="H63" t="s">
-        <v>316</v>
+        <v>163</v>
+      </c>
+      <c r="H63">
+        <v>256</v>
       </c>
       <c r="I63" s="2">
         <v>44621.41149305556</v>
       </c>
       <c r="J63" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K63">
         <v>9</v>
@@ -3209,23 +2708,23 @@
       <c r="B64" t="s">
         <v>73</v>
       </c>
-      <c r="C64" t="s">
-        <v>213</v>
+      <c r="C64">
+        <v>4710623020113</v>
       </c>
       <c r="F64" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G64" t="s">
-        <v>293</v>
-      </c>
-      <c r="H64" t="s">
-        <v>317</v>
+        <v>163</v>
+      </c>
+      <c r="H64">
+        <v>32</v>
       </c>
       <c r="I64" s="2">
         <v>44621.41168981481</v>
       </c>
       <c r="J64" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K64">
         <v>9</v>
@@ -3239,22 +2738,22 @@
         <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="F65" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G65" t="s">
-        <v>293</v>
-      </c>
-      <c r="H65" t="s">
-        <v>295</v>
+        <v>163</v>
+      </c>
+      <c r="H65">
+        <v>20</v>
       </c>
       <c r="I65" s="2">
         <v>44621.4125462963</v>
       </c>
       <c r="J65" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K65">
         <v>9</v>
@@ -3268,22 +2767,22 @@
         <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="F66" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G66" t="s">
-        <v>293</v>
-      </c>
-      <c r="H66" t="s">
-        <v>295</v>
+        <v>163</v>
+      </c>
+      <c r="H66">
+        <v>20</v>
       </c>
       <c r="I66" s="2">
         <v>44621.41261574074</v>
       </c>
       <c r="J66" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K66">
         <v>9</v>
@@ -3297,22 +2796,22 @@
         <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="F67" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G67" t="s">
-        <v>293</v>
-      </c>
-      <c r="H67" t="s">
-        <v>297</v>
+        <v>163</v>
+      </c>
+      <c r="H67">
+        <v>10</v>
       </c>
       <c r="I67" s="2">
         <v>44621.41297453704</v>
       </c>
       <c r="J67" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K67">
         <v>9</v>
@@ -3326,22 +2825,22 @@
         <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="F68" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G68" t="s">
-        <v>293</v>
-      </c>
-      <c r="H68" t="s">
-        <v>295</v>
+        <v>163</v>
+      </c>
+      <c r="H68">
+        <v>20</v>
       </c>
       <c r="I68" s="2">
         <v>44621.41306712963</v>
       </c>
       <c r="J68" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K68">
         <v>9</v>
@@ -3355,22 +2854,22 @@
         <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="F69" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G69" t="s">
-        <v>293</v>
-      </c>
-      <c r="H69" t="s">
-        <v>297</v>
+        <v>163</v>
+      </c>
+      <c r="H69">
+        <v>10</v>
       </c>
       <c r="I69" s="2">
         <v>44621.41461805555</v>
       </c>
       <c r="J69" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K69">
         <v>9</v>
@@ -3384,22 +2883,22 @@
         <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="F70" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G70" t="s">
-        <v>293</v>
-      </c>
-      <c r="H70" t="s">
-        <v>297</v>
+        <v>163</v>
+      </c>
+      <c r="H70">
+        <v>10</v>
       </c>
       <c r="I70" s="2">
         <v>44621.41473379629</v>
       </c>
       <c r="J70" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K70">
         <v>9</v>
@@ -3413,22 +2912,22 @@
         <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="F71" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G71" t="s">
-        <v>293</v>
-      </c>
-      <c r="H71" t="s">
-        <v>297</v>
+        <v>163</v>
+      </c>
+      <c r="H71">
+        <v>10</v>
       </c>
       <c r="I71" s="2">
         <v>44621.41475694445</v>
       </c>
       <c r="J71" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K71">
         <v>9</v>
@@ -3442,22 +2941,22 @@
         <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="F72" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G72" t="s">
-        <v>293</v>
-      </c>
-      <c r="H72" t="s">
-        <v>297</v>
+        <v>163</v>
+      </c>
+      <c r="H72">
+        <v>10</v>
       </c>
       <c r="I72" s="2">
         <v>44621.41478009259</v>
       </c>
       <c r="J72" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K72">
         <v>9</v>
@@ -3471,22 +2970,22 @@
         <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="F73" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G73" t="s">
-        <v>293</v>
-      </c>
-      <c r="H73" t="s">
-        <v>294</v>
+        <v>163</v>
+      </c>
+      <c r="H73">
+        <v>50</v>
       </c>
       <c r="I73" s="2">
         <v>44621.41619212963</v>
       </c>
       <c r="J73" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K73">
         <v>9</v>
@@ -3500,22 +2999,22 @@
         <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="F74" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G74" t="s">
-        <v>293</v>
-      </c>
-      <c r="H74" t="s">
-        <v>308</v>
+        <v>163</v>
+      </c>
+      <c r="H74">
+        <v>100</v>
       </c>
       <c r="I74" s="2">
         <v>44621.41721064815</v>
       </c>
       <c r="J74" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K74">
         <v>10</v>
@@ -3528,23 +3027,23 @@
       <c r="B75" t="s">
         <v>84</v>
       </c>
-      <c r="C75" t="s">
-        <v>224</v>
+      <c r="C75">
+        <v>4901940039067</v>
       </c>
       <c r="F75" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G75" t="s">
-        <v>293</v>
-      </c>
-      <c r="H75" t="s">
-        <v>297</v>
+        <v>163</v>
+      </c>
+      <c r="H75">
+        <v>10</v>
       </c>
       <c r="I75" s="2">
         <v>44621.42045138889</v>
       </c>
       <c r="J75" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K75">
         <v>10</v>
@@ -3557,23 +3056,23 @@
       <c r="B76" t="s">
         <v>85</v>
       </c>
-      <c r="C76" t="s">
-        <v>225</v>
+      <c r="C76">
+        <v>4901940111404</v>
       </c>
       <c r="F76" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G76" t="s">
-        <v>293</v>
-      </c>
-      <c r="H76" t="s">
-        <v>295</v>
+        <v>163</v>
+      </c>
+      <c r="H76">
+        <v>20</v>
       </c>
       <c r="I76" s="2">
         <v>44621.42050925926</v>
       </c>
       <c r="J76" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K76">
         <v>10</v>
@@ -3586,23 +3085,23 @@
       <c r="B77" t="s">
         <v>86</v>
       </c>
-      <c r="C77" t="s">
-        <v>226</v>
+      <c r="C77">
+        <v>4711175006921</v>
       </c>
       <c r="F77" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G77" t="s">
-        <v>293</v>
-      </c>
-      <c r="H77" t="s">
-        <v>318</v>
+        <v>163</v>
+      </c>
+      <c r="H77">
+        <v>22</v>
       </c>
       <c r="I77" s="2">
         <v>44621.42054398148</v>
       </c>
       <c r="J77" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K77">
         <v>10</v>
@@ -3615,23 +3114,23 @@
       <c r="B78" t="s">
         <v>87</v>
       </c>
-      <c r="C78" t="s">
-        <v>227</v>
+      <c r="C78">
+        <v>4902380135845</v>
       </c>
       <c r="F78" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G78" t="s">
-        <v>293</v>
-      </c>
-      <c r="H78" t="s">
-        <v>319</v>
+        <v>163</v>
+      </c>
+      <c r="H78">
+        <v>160</v>
       </c>
       <c r="I78" s="2">
         <v>44621.42134259259</v>
       </c>
       <c r="J78" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K78">
         <v>10</v>
@@ -3644,23 +3143,23 @@
       <c r="B79" t="s">
         <v>88</v>
       </c>
-      <c r="C79" t="s">
-        <v>228</v>
+      <c r="C79">
+        <v>4902888544224</v>
       </c>
       <c r="F79" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G79" t="s">
-        <v>293</v>
-      </c>
-      <c r="H79" t="s">
-        <v>320</v>
+        <v>163</v>
+      </c>
+      <c r="H79">
+        <v>120</v>
       </c>
       <c r="I79" s="2">
         <v>44621.42177083333</v>
       </c>
       <c r="J79" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K79">
         <v>10</v>
@@ -3673,23 +3172,23 @@
       <c r="B80" t="s">
         <v>89</v>
       </c>
-      <c r="C80" t="s">
-        <v>229</v>
+      <c r="C80">
+        <v>8936071070272</v>
       </c>
       <c r="F80" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G80" t="s">
-        <v>293</v>
-      </c>
-      <c r="H80" t="s">
-        <v>315</v>
+        <v>163</v>
+      </c>
+      <c r="H80">
+        <v>72</v>
       </c>
       <c r="I80" s="2">
         <v>44621.42268518519</v>
       </c>
       <c r="J80" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K80">
         <v>10</v>
@@ -3702,23 +3201,23 @@
       <c r="B81" t="s">
         <v>90</v>
       </c>
-      <c r="C81" t="s">
-        <v>230</v>
+      <c r="C81">
+        <v>8936071070203</v>
       </c>
       <c r="F81" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G81" t="s">
-        <v>293</v>
-      </c>
-      <c r="H81" t="s">
-        <v>320</v>
+        <v>163</v>
+      </c>
+      <c r="H81">
+        <v>120</v>
       </c>
       <c r="I81" s="2">
         <v>44621.42275462963</v>
       </c>
       <c r="J81" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K81">
         <v>10</v>
@@ -3731,23 +3230,23 @@
       <c r="B82" t="s">
         <v>91</v>
       </c>
-      <c r="C82" t="s">
-        <v>231</v>
+      <c r="C82">
+        <v>6151100035868</v>
       </c>
       <c r="F82" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G82" t="s">
-        <v>293</v>
-      </c>
-      <c r="H82" t="s">
-        <v>321</v>
+        <v>163</v>
+      </c>
+      <c r="H82">
+        <v>360</v>
       </c>
       <c r="I82" s="2">
         <v>44621.42444444444</v>
       </c>
       <c r="J82" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K82">
         <v>10</v>
@@ -3760,23 +3259,23 @@
       <c r="B83" t="s">
         <v>92</v>
       </c>
-      <c r="C83" t="s">
-        <v>232</v>
+      <c r="C83">
+        <v>8936071070197</v>
       </c>
       <c r="F83" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G83" t="s">
-        <v>293</v>
-      </c>
-      <c r="H83" t="s">
-        <v>320</v>
+        <v>163</v>
+      </c>
+      <c r="H83">
+        <v>120</v>
       </c>
       <c r="I83" s="2">
         <v>44621.42461805556</v>
       </c>
       <c r="J83" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K83">
         <v>10</v>
@@ -3789,23 +3288,23 @@
       <c r="B84" t="s">
         <v>93</v>
       </c>
-      <c r="C84" t="s">
-        <v>233</v>
+      <c r="C84">
+        <v>8936071070265</v>
       </c>
       <c r="F84" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G84" t="s">
-        <v>293</v>
-      </c>
-      <c r="H84" t="s">
-        <v>320</v>
+        <v>163</v>
+      </c>
+      <c r="H84">
+        <v>120</v>
       </c>
       <c r="I84" s="2">
         <v>44621.42469907407</v>
       </c>
       <c r="J84" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K84">
         <v>10</v>
@@ -3818,23 +3317,23 @@
       <c r="B85" t="s">
         <v>94</v>
       </c>
-      <c r="C85" t="s">
-        <v>234</v>
+      <c r="C85">
+        <v>4710235000039</v>
       </c>
       <c r="F85" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G85" t="s">
-        <v>293</v>
-      </c>
-      <c r="H85" t="s">
-        <v>322</v>
+        <v>163</v>
+      </c>
+      <c r="H85">
+        <v>108</v>
       </c>
       <c r="I85" s="2">
         <v>44621.42511574074</v>
       </c>
       <c r="J85" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K85">
         <v>10</v>
@@ -3847,23 +3346,23 @@
       <c r="B86" t="s">
         <v>95</v>
       </c>
-      <c r="C86" t="s">
-        <v>235</v>
+      <c r="C86">
+        <v>4710235000305</v>
       </c>
       <c r="F86" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G86" t="s">
-        <v>293</v>
-      </c>
-      <c r="H86" t="s">
-        <v>323</v>
+        <v>163</v>
+      </c>
+      <c r="H86">
+        <v>36</v>
       </c>
       <c r="I86" s="2">
         <v>44621.42542824074</v>
       </c>
       <c r="J86" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K86">
         <v>10</v>
@@ -3876,23 +3375,23 @@
       <c r="B87" t="s">
         <v>96</v>
       </c>
-      <c r="C87" t="s">
-        <v>236</v>
+      <c r="C87">
+        <v>49698633</v>
       </c>
       <c r="F87" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G87" t="s">
-        <v>293</v>
-      </c>
-      <c r="H87" t="s">
-        <v>308</v>
+        <v>163</v>
+      </c>
+      <c r="H87">
+        <v>100</v>
       </c>
       <c r="I87" s="2">
         <v>44621.42552083333</v>
       </c>
       <c r="J87" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K87">
         <v>10</v>
@@ -3905,23 +3404,23 @@
       <c r="B88" t="s">
         <v>97</v>
       </c>
-      <c r="C88" t="s">
-        <v>237</v>
+      <c r="C88">
+        <v>4901940039043</v>
       </c>
       <c r="F88" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G88" t="s">
-        <v>293</v>
-      </c>
-      <c r="H88" t="s">
-        <v>308</v>
+        <v>163</v>
+      </c>
+      <c r="H88">
+        <v>100</v>
       </c>
       <c r="I88" s="2">
         <v>44621.42755787037</v>
       </c>
       <c r="J88" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K88">
         <v>10</v>
@@ -3934,23 +3433,23 @@
       <c r="B89" t="s">
         <v>98</v>
       </c>
-      <c r="C89" t="s">
-        <v>238</v>
+      <c r="C89">
+        <v>4710235000015</v>
       </c>
       <c r="F89" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G89" t="s">
-        <v>293</v>
-      </c>
-      <c r="H89" t="s">
-        <v>324</v>
+        <v>163</v>
+      </c>
+      <c r="H89">
+        <v>240</v>
       </c>
       <c r="I89" s="2">
         <v>44621.42782407408</v>
       </c>
       <c r="J89" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K89">
         <v>10</v>
@@ -3963,23 +3462,23 @@
       <c r="B90" t="s">
         <v>99</v>
       </c>
-      <c r="C90" t="s">
-        <v>239</v>
+      <c r="C90">
+        <v>4902880051379</v>
       </c>
       <c r="F90" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G90" t="s">
-        <v>293</v>
-      </c>
-      <c r="H90" t="s">
-        <v>323</v>
+        <v>163</v>
+      </c>
+      <c r="H90">
+        <v>36</v>
       </c>
       <c r="I90" s="2">
         <v>44621.42883101852</v>
       </c>
       <c r="J90" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K90">
         <v>10</v>
@@ -3992,23 +3491,23 @@
       <c r="B91" t="s">
         <v>100</v>
       </c>
-      <c r="C91" t="s">
-        <v>240</v>
+      <c r="C91">
+        <v>4902110250848</v>
       </c>
       <c r="F91" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G91" t="s">
-        <v>293</v>
-      </c>
-      <c r="H91" t="s">
-        <v>320</v>
+        <v>163</v>
+      </c>
+      <c r="H91">
+        <v>120</v>
       </c>
       <c r="I91" s="2">
         <v>44621.42899305555</v>
       </c>
       <c r="J91" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K91">
         <v>10</v>
@@ -4021,23 +3520,23 @@
       <c r="B92" t="s">
         <v>101</v>
       </c>
-      <c r="C92" t="s">
-        <v>241</v>
+      <c r="C92">
+        <v>4902560170642</v>
       </c>
       <c r="F92" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G92" t="s">
-        <v>293</v>
-      </c>
-      <c r="H92" t="s">
-        <v>325</v>
+        <v>163</v>
+      </c>
+      <c r="H92">
+        <v>24</v>
       </c>
       <c r="I92" s="2">
         <v>44621.42917824074</v>
       </c>
       <c r="J92" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K92">
         <v>10</v>
@@ -4050,23 +3549,23 @@
       <c r="B93" t="s">
         <v>102</v>
       </c>
-      <c r="C93" t="s">
-        <v>242</v>
+      <c r="C93">
+        <v>4902555270845</v>
       </c>
       <c r="F93" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G93" t="s">
-        <v>293</v>
-      </c>
-      <c r="H93" t="s">
-        <v>297</v>
+        <v>163</v>
+      </c>
+      <c r="H93">
+        <v>10</v>
       </c>
       <c r="I93" s="2">
         <v>44621.42927083333</v>
       </c>
       <c r="J93" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K93">
         <v>10</v>
@@ -4079,23 +3578,23 @@
       <c r="B94" t="s">
         <v>103</v>
       </c>
-      <c r="C94" t="s">
-        <v>243</v>
+      <c r="C94">
+        <v>4571256849133</v>
       </c>
       <c r="F94" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G94" t="s">
-        <v>293</v>
-      </c>
-      <c r="H94" t="s">
-        <v>325</v>
+        <v>163</v>
+      </c>
+      <c r="H94">
+        <v>24</v>
       </c>
       <c r="I94" s="2">
         <v>44621.42938657408</v>
       </c>
       <c r="J94" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K94">
         <v>10</v>
@@ -4108,23 +3607,23 @@
       <c r="B95" t="s">
         <v>104</v>
       </c>
-      <c r="C95" t="s">
-        <v>244</v>
+      <c r="C95">
+        <v>4970855000233</v>
       </c>
       <c r="F95" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G95" t="s">
-        <v>293</v>
-      </c>
-      <c r="H95" t="s">
-        <v>313</v>
+        <v>163</v>
+      </c>
+      <c r="H95">
+        <v>6</v>
       </c>
       <c r="I95" s="2">
         <v>44621.42961805555</v>
       </c>
       <c r="J95" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K95">
         <v>10</v>
@@ -4137,23 +3636,23 @@
       <c r="B96" t="s">
         <v>105</v>
       </c>
-      <c r="C96" t="s">
-        <v>245</v>
+      <c r="C96">
+        <v>8809296883104</v>
       </c>
       <c r="F96" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G96" t="s">
-        <v>293</v>
-      </c>
-      <c r="H96" t="s">
-        <v>326</v>
+        <v>163</v>
+      </c>
+      <c r="H96">
+        <v>8</v>
       </c>
       <c r="I96" s="2">
         <v>44621.42975694445</v>
       </c>
       <c r="J96" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K96">
         <v>10</v>
@@ -4166,23 +3665,23 @@
       <c r="B97" t="s">
         <v>106</v>
       </c>
-      <c r="C97" t="s">
-        <v>246</v>
+      <c r="C97">
+        <v>4970855000295</v>
       </c>
       <c r="F97" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G97" t="s">
-        <v>293</v>
-      </c>
-      <c r="H97" t="s">
-        <v>313</v>
+        <v>163</v>
+      </c>
+      <c r="H97">
+        <v>6</v>
       </c>
       <c r="I97" s="2">
         <v>44621.42986111111</v>
       </c>
       <c r="J97" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K97">
         <v>10</v>
@@ -4195,23 +3694,23 @@
       <c r="B98" t="s">
         <v>107</v>
       </c>
-      <c r="C98" t="s">
-        <v>247</v>
+      <c r="C98">
+        <v>4970855000530</v>
       </c>
       <c r="F98" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G98" t="s">
-        <v>293</v>
-      </c>
-      <c r="H98" t="s">
-        <v>297</v>
+        <v>163</v>
+      </c>
+      <c r="H98">
+        <v>10</v>
       </c>
       <c r="I98" s="2">
         <v>44621.43091435185</v>
       </c>
       <c r="J98" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K98">
         <v>10</v>
@@ -4224,23 +3723,23 @@
       <c r="B99" t="s">
         <v>108</v>
       </c>
-      <c r="C99" t="s">
-        <v>248</v>
+      <c r="C99">
+        <v>4901577042072</v>
       </c>
       <c r="F99" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G99" t="s">
-        <v>293</v>
-      </c>
-      <c r="H99" t="s">
-        <v>295</v>
+        <v>163</v>
+      </c>
+      <c r="H99">
+        <v>20</v>
       </c>
       <c r="I99" s="2">
         <v>44621.43100694445</v>
       </c>
       <c r="J99" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K99">
         <v>10</v>
@@ -4253,23 +3752,23 @@
       <c r="B100" t="s">
         <v>109</v>
       </c>
-      <c r="C100" t="s">
-        <v>249</v>
+      <c r="C100">
+        <v>4904621043490</v>
       </c>
       <c r="F100" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G100" t="s">
-        <v>293</v>
-      </c>
-      <c r="H100" t="s">
-        <v>297</v>
+        <v>163</v>
+      </c>
+      <c r="H100">
+        <v>10</v>
       </c>
       <c r="I100" s="2">
         <v>44621.43108796296</v>
       </c>
       <c r="J100" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K100">
         <v>10</v>
@@ -4282,23 +3781,23 @@
       <c r="B101" t="s">
         <v>110</v>
       </c>
-      <c r="C101" t="s">
-        <v>250</v>
+      <c r="C101">
+        <v>4970180100196</v>
       </c>
       <c r="F101" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G101" t="s">
-        <v>293</v>
-      </c>
-      <c r="H101" t="s">
-        <v>312</v>
+        <v>163</v>
+      </c>
+      <c r="H101">
+        <v>12</v>
       </c>
       <c r="I101" s="2">
         <v>44621.43115740741</v>
       </c>
       <c r="J101" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K101">
         <v>10</v>
@@ -4311,23 +3810,23 @@
       <c r="B102" t="s">
         <v>111</v>
       </c>
-      <c r="C102" t="s">
-        <v>251</v>
+      <c r="C102">
+        <v>4901891245593</v>
       </c>
       <c r="F102" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G102" t="s">
-        <v>293</v>
-      </c>
-      <c r="H102" t="s">
-        <v>312</v>
+        <v>163</v>
+      </c>
+      <c r="H102">
+        <v>12</v>
       </c>
       <c r="I102" s="2">
         <v>44621.43129629629</v>
       </c>
       <c r="J102" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K102">
         <v>10</v>
@@ -4340,23 +3839,23 @@
       <c r="B103" t="s">
         <v>112</v>
       </c>
-      <c r="C103" t="s">
-        <v>252</v>
+      <c r="C103">
+        <v>4901830161212</v>
       </c>
       <c r="F103" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G103" t="s">
-        <v>293</v>
-      </c>
-      <c r="H103" t="s">
-        <v>297</v>
+        <v>163</v>
+      </c>
+      <c r="H103">
+        <v>10</v>
       </c>
       <c r="I103" s="2">
         <v>44621.43136574074</v>
       </c>
       <c r="J103" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K103">
         <v>10</v>
@@ -4369,23 +3868,23 @@
       <c r="B104" t="s">
         <v>113</v>
       </c>
-      <c r="C104" t="s">
-        <v>253</v>
+      <c r="C104">
+        <v>4976774681003</v>
       </c>
       <c r="F104" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G104" t="s">
-        <v>293</v>
-      </c>
-      <c r="H104" t="s">
-        <v>312</v>
+        <v>163</v>
+      </c>
+      <c r="H104">
+        <v>12</v>
       </c>
       <c r="I104" s="2">
         <v>44621.43144675926</v>
       </c>
       <c r="J104" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K104">
         <v>10</v>
@@ -4398,23 +3897,23 @@
       <c r="B105" t="s">
         <v>114</v>
       </c>
-      <c r="C105" t="s">
-        <v>254</v>
+      <c r="C105">
+        <v>4902880051393</v>
       </c>
       <c r="F105" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G105" t="s">
-        <v>293</v>
-      </c>
-      <c r="H105" t="s">
-        <v>327</v>
+        <v>163</v>
+      </c>
+      <c r="H105">
+        <v>60</v>
       </c>
       <c r="I105" s="2">
         <v>44621.43153935186</v>
       </c>
       <c r="J105" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K105">
         <v>10</v>
@@ -4427,23 +3926,23 @@
       <c r="B106" t="s">
         <v>115</v>
       </c>
-      <c r="C106" t="s">
-        <v>255</v>
+      <c r="C106">
+        <v>4901726014943</v>
       </c>
       <c r="F106" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G106" t="s">
-        <v>293</v>
-      </c>
-      <c r="H106" t="s">
-        <v>312</v>
+        <v>163</v>
+      </c>
+      <c r="H106">
+        <v>12</v>
       </c>
       <c r="I106" s="2">
         <v>44621.4337037037</v>
       </c>
       <c r="J106" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K106">
         <v>10</v>
@@ -4456,23 +3955,23 @@
       <c r="B107" t="s">
         <v>116</v>
       </c>
-      <c r="C107" t="s">
-        <v>256</v>
+      <c r="C107">
+        <v>4979328623603</v>
       </c>
       <c r="F107" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G107" t="s">
-        <v>293</v>
-      </c>
-      <c r="H107" t="s">
-        <v>295</v>
+        <v>163</v>
+      </c>
+      <c r="H107">
+        <v>20</v>
       </c>
       <c r="I107" s="2">
         <v>44621.4337962963</v>
       </c>
       <c r="J107" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K107">
         <v>10</v>
@@ -4485,23 +3984,23 @@
       <c r="B108" t="s">
         <v>117</v>
       </c>
-      <c r="C108" t="s">
-        <v>257</v>
+      <c r="C108">
+        <v>4970013510796</v>
       </c>
       <c r="F108" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G108" t="s">
-        <v>293</v>
-      </c>
-      <c r="H108" t="s">
-        <v>328</v>
+        <v>163</v>
+      </c>
+      <c r="H108">
+        <v>7</v>
       </c>
       <c r="I108" s="2">
         <v>44621.43388888889</v>
       </c>
       <c r="J108" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K108">
         <v>10</v>
@@ -4514,23 +4013,23 @@
       <c r="B109" t="s">
         <v>118</v>
       </c>
-      <c r="C109" t="s">
-        <v>258</v>
+      <c r="C109">
+        <v>4901027514029</v>
       </c>
       <c r="F109" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G109" t="s">
-        <v>293</v>
-      </c>
-      <c r="H109" t="s">
-        <v>295</v>
+        <v>163</v>
+      </c>
+      <c r="H109">
+        <v>20</v>
       </c>
       <c r="I109" s="2">
         <v>44621.4340162037</v>
       </c>
       <c r="J109" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K109">
         <v>10</v>
@@ -4543,23 +4042,23 @@
       <c r="B110" t="s">
         <v>119</v>
       </c>
-      <c r="C110" t="s">
-        <v>259</v>
+      <c r="C110">
+        <v>4901726014950</v>
       </c>
       <c r="F110" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G110" t="s">
-        <v>293</v>
-      </c>
-      <c r="H110" t="s">
-        <v>312</v>
+        <v>163</v>
+      </c>
+      <c r="H110">
+        <v>12</v>
       </c>
       <c r="I110" s="2">
         <v>44621.43413194444</v>
       </c>
       <c r="J110" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K110">
         <v>10</v>
@@ -4572,23 +4071,23 @@
       <c r="B111" t="s">
         <v>120</v>
       </c>
-      <c r="C111" t="s">
-        <v>260</v>
+      <c r="C111">
+        <v>4904537002567</v>
       </c>
       <c r="F111" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G111" t="s">
-        <v>293</v>
-      </c>
-      <c r="H111" t="s">
-        <v>312</v>
+        <v>163</v>
+      </c>
+      <c r="H111">
+        <v>12</v>
       </c>
       <c r="I111" s="2">
         <v>44621.43423611111</v>
       </c>
       <c r="J111" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K111">
         <v>10</v>
@@ -4601,23 +4100,23 @@
       <c r="B112" t="s">
         <v>121</v>
       </c>
-      <c r="C112" t="s">
-        <v>261</v>
+      <c r="C112">
+        <v>4975803668053</v>
       </c>
       <c r="F112" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G112" t="s">
-        <v>293</v>
-      </c>
-      <c r="H112" t="s">
-        <v>296</v>
+        <v>163</v>
+      </c>
+      <c r="H112">
+        <v>15</v>
       </c>
       <c r="I112" s="2">
         <v>44621.43431712963</v>
       </c>
       <c r="J112" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K112">
         <v>10</v>
@@ -4630,23 +4129,23 @@
       <c r="B113" t="s">
         <v>122</v>
       </c>
-      <c r="C113" t="s">
-        <v>262</v>
+      <c r="C113">
+        <v>4901265127258</v>
       </c>
       <c r="F113" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G113" t="s">
-        <v>293</v>
-      </c>
-      <c r="H113" t="s">
-        <v>313</v>
+        <v>163</v>
+      </c>
+      <c r="H113">
+        <v>6</v>
       </c>
       <c r="I113" s="2">
         <v>44621.434375</v>
       </c>
       <c r="J113" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K113">
         <v>10</v>
@@ -4659,23 +4158,23 @@
       <c r="B114" t="s">
         <v>123</v>
       </c>
-      <c r="C114" t="s">
-        <v>263</v>
+      <c r="C114">
+        <v>4902201424066</v>
       </c>
       <c r="F114" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G114" t="s">
-        <v>293</v>
-      </c>
-      <c r="H114" t="s">
-        <v>325</v>
+        <v>163</v>
+      </c>
+      <c r="H114">
+        <v>24</v>
       </c>
       <c r="I114" s="2">
         <v>44621.43538194444</v>
       </c>
       <c r="J114" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K114">
         <v>10</v>
@@ -4688,23 +4187,23 @@
       <c r="B115" t="s">
         <v>124</v>
       </c>
-      <c r="C115" t="s">
-        <v>264</v>
+      <c r="C115">
+        <v>4710498998449</v>
       </c>
       <c r="F115" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G115" t="s">
-        <v>293</v>
-      </c>
-      <c r="H115" t="s">
-        <v>295</v>
+        <v>163</v>
+      </c>
+      <c r="H115">
+        <v>20</v>
       </c>
       <c r="I115" s="2">
         <v>44621.43545138889</v>
       </c>
       <c r="J115" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K115">
         <v>10</v>
@@ -4717,23 +4216,23 @@
       <c r="B116" t="s">
         <v>125</v>
       </c>
-      <c r="C116" t="s">
-        <v>265</v>
+      <c r="C116">
+        <v>4710498991983</v>
       </c>
       <c r="F116" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G116" t="s">
-        <v>293</v>
-      </c>
-      <c r="H116" t="s">
-        <v>325</v>
+        <v>163</v>
+      </c>
+      <c r="H116">
+        <v>24</v>
       </c>
       <c r="I116" s="2">
         <v>44621.43548611111</v>
       </c>
       <c r="J116" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K116">
         <v>10</v>
@@ -4746,23 +4245,23 @@
       <c r="B117" t="s">
         <v>126</v>
       </c>
-      <c r="C117" t="s">
-        <v>266</v>
+      <c r="C117">
+        <v>4977081882527</v>
       </c>
       <c r="F117" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G117" t="s">
-        <v>293</v>
-      </c>
-      <c r="H117" t="s">
-        <v>297</v>
+        <v>163</v>
+      </c>
+      <c r="H117">
+        <v>10</v>
       </c>
       <c r="I117" s="2">
         <v>44621.43582175926</v>
       </c>
       <c r="J117" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K117">
         <v>10</v>
@@ -4775,23 +4274,23 @@
       <c r="B118" t="s">
         <v>127</v>
       </c>
-      <c r="C118" t="s">
-        <v>267</v>
+      <c r="C118">
+        <v>4969625116212</v>
       </c>
       <c r="F118" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G118" t="s">
-        <v>293</v>
-      </c>
-      <c r="H118" t="s">
-        <v>329</v>
+        <v>163</v>
+      </c>
+      <c r="H118">
+        <v>48</v>
       </c>
       <c r="I118" s="2">
         <v>44621.43582175926</v>
       </c>
       <c r="J118" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K118">
         <v>10</v>
@@ -4804,23 +4303,23 @@
       <c r="B119" t="s">
         <v>128</v>
       </c>
-      <c r="C119" t="s">
-        <v>268</v>
+      <c r="C119">
+        <v>4901201103803</v>
       </c>
       <c r="F119" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G119" t="s">
-        <v>293</v>
-      </c>
-      <c r="H119" t="s">
-        <v>329</v>
+        <v>163</v>
+      </c>
+      <c r="H119">
+        <v>48</v>
       </c>
       <c r="I119" s="2">
         <v>44621.43582175926</v>
       </c>
       <c r="J119" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K119">
         <v>10</v>
@@ -4833,23 +4332,23 @@
       <c r="B120" t="s">
         <v>129</v>
       </c>
-      <c r="C120" t="s">
-        <v>269</v>
+      <c r="C120">
+        <v>4712893200066</v>
       </c>
       <c r="F120" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G120" t="s">
-        <v>293</v>
-      </c>
-      <c r="H120" t="s">
-        <v>329</v>
+        <v>163</v>
+      </c>
+      <c r="H120">
+        <v>48</v>
       </c>
       <c r="I120" s="2">
         <v>44621.43587962963</v>
       </c>
       <c r="J120" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K120">
         <v>10</v>
@@ -4862,23 +4361,23 @@
       <c r="B121" t="s">
         <v>130</v>
       </c>
-      <c r="C121" t="s">
-        <v>270</v>
+      <c r="C121">
+        <v>4978376370019</v>
       </c>
       <c r="F121" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G121" t="s">
-        <v>293</v>
-      </c>
-      <c r="H121" t="s">
-        <v>297</v>
+        <v>163</v>
+      </c>
+      <c r="H121">
+        <v>10</v>
       </c>
       <c r="I121" s="2">
         <v>44621.43600694444</v>
       </c>
       <c r="J121" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K121">
         <v>10</v>
@@ -4891,23 +4390,23 @@
       <c r="B122" t="s">
         <v>131</v>
       </c>
-      <c r="C122" t="s">
-        <v>271</v>
+      <c r="C122">
+        <v>4717622994131</v>
       </c>
       <c r="F122" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G122" t="s">
-        <v>293</v>
-      </c>
-      <c r="H122" t="s">
-        <v>294</v>
+        <v>163</v>
+      </c>
+      <c r="H122">
+        <v>50</v>
       </c>
       <c r="I122" s="2">
         <v>44621.43767361111</v>
       </c>
       <c r="J122" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K122">
         <v>10</v>
@@ -4920,23 +4419,23 @@
       <c r="B123" t="s">
         <v>132</v>
       </c>
-      <c r="C123" t="s">
-        <v>272</v>
+      <c r="C123">
+        <v>4901159604131</v>
       </c>
       <c r="F123" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G123" t="s">
-        <v>293</v>
-      </c>
-      <c r="H123" t="s">
-        <v>327</v>
+        <v>163</v>
+      </c>
+      <c r="H123">
+        <v>60</v>
       </c>
       <c r="I123" s="2">
         <v>44621.43773148148</v>
       </c>
       <c r="J123" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K123">
         <v>10</v>
@@ -4949,23 +4448,23 @@
       <c r="B124" t="s">
         <v>133</v>
       </c>
-      <c r="C124" t="s">
-        <v>273</v>
+      <c r="C124">
+        <v>4717622993943</v>
       </c>
       <c r="F124" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G124" t="s">
-        <v>293</v>
-      </c>
-      <c r="H124" t="s">
-        <v>308</v>
+        <v>163</v>
+      </c>
+      <c r="H124">
+        <v>100</v>
       </c>
       <c r="I124" s="2">
         <v>44621.4380787037</v>
       </c>
       <c r="J124" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K124">
         <v>10</v>
@@ -4978,23 +4477,23 @@
       <c r="B125" t="s">
         <v>134</v>
       </c>
-      <c r="C125" t="s">
-        <v>274</v>
+      <c r="C125">
+        <v>4970172184234</v>
       </c>
       <c r="F125" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G125" t="s">
-        <v>293</v>
-      </c>
-      <c r="H125" t="s">
-        <v>297</v>
+        <v>163</v>
+      </c>
+      <c r="H125">
+        <v>10</v>
       </c>
       <c r="I125" s="2">
         <v>44621.43814814815</v>
       </c>
       <c r="J125" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K125">
         <v>10</v>
@@ -5007,23 +4506,23 @@
       <c r="B126" t="s">
         <v>135</v>
       </c>
-      <c r="C126" t="s">
-        <v>275</v>
+      <c r="C126">
+        <v>4975658015842</v>
       </c>
       <c r="F126" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G126" t="s">
-        <v>293</v>
-      </c>
-      <c r="H126" t="s">
-        <v>295</v>
+        <v>163</v>
+      </c>
+      <c r="H126">
+        <v>20</v>
       </c>
       <c r="I126" s="2">
         <v>44621.43821759259</v>
       </c>
       <c r="J126" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K126">
         <v>10</v>
@@ -5036,23 +4535,23 @@
       <c r="B127" t="s">
         <v>136</v>
       </c>
-      <c r="C127" t="s">
-        <v>276</v>
+      <c r="C127">
+        <v>5690302115226</v>
       </c>
       <c r="F127" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G127" t="s">
-        <v>293</v>
-      </c>
-      <c r="H127" t="s">
-        <v>327</v>
+        <v>163</v>
+      </c>
+      <c r="H127">
+        <v>60</v>
       </c>
       <c r="I127" s="2">
         <v>44621.43833333333</v>
       </c>
       <c r="J127" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K127">
         <v>10</v>
@@ -5065,23 +4564,23 @@
       <c r="B128" t="s">
         <v>137</v>
       </c>
-      <c r="C128" t="s">
-        <v>277</v>
+      <c r="C128">
+        <v>4901111275232</v>
       </c>
       <c r="F128" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G128" t="s">
-        <v>293</v>
-      </c>
-      <c r="H128" t="s">
-        <v>324</v>
+        <v>163</v>
+      </c>
+      <c r="H128">
+        <v>240</v>
       </c>
       <c r="I128" s="2">
         <v>44621.43887731482</v>
       </c>
       <c r="J128" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K128">
         <v>10</v>
@@ -5094,23 +4593,23 @@
       <c r="B129" t="s">
         <v>138</v>
       </c>
-      <c r="C129" t="s">
-        <v>278</v>
+      <c r="C129">
+        <v>4901111275195</v>
       </c>
       <c r="F129" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G129" t="s">
-        <v>293</v>
-      </c>
-      <c r="H129" t="s">
-        <v>324</v>
+        <v>163</v>
+      </c>
+      <c r="H129">
+        <v>240</v>
       </c>
       <c r="I129" s="2">
         <v>44621.43947916666</v>
       </c>
       <c r="J129" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K129">
         <v>10</v>
@@ -5123,23 +4622,23 @@
       <c r="B130" t="s">
         <v>139</v>
       </c>
-      <c r="C130" t="s">
-        <v>279</v>
+      <c r="C130">
+        <v>4902102130264</v>
       </c>
       <c r="F130" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G130" t="s">
-        <v>293</v>
-      </c>
-      <c r="H130" t="s">
-        <v>323</v>
+        <v>163</v>
+      </c>
+      <c r="H130">
+        <v>36</v>
       </c>
       <c r="I130" s="2">
         <v>44621.43997685185</v>
       </c>
       <c r="J130" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K130">
         <v>10</v>
@@ -5152,23 +4651,23 @@
       <c r="B131" t="s">
         <v>140</v>
       </c>
-      <c r="C131" t="s">
-        <v>280</v>
+      <c r="C131">
+        <v>4901111479586</v>
       </c>
       <c r="F131" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G131" t="s">
-        <v>293</v>
-      </c>
-      <c r="H131" t="s">
-        <v>312</v>
+        <v>163</v>
+      </c>
+      <c r="H131">
+        <v>12</v>
       </c>
       <c r="I131" s="2">
         <v>44621.44081018519</v>
       </c>
       <c r="J131" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K131">
         <v>10</v>
@@ -5181,23 +4680,23 @@
       <c r="B132" t="s">
         <v>141</v>
       </c>
-      <c r="C132" t="s">
-        <v>281</v>
+      <c r="C132">
+        <v>4562154327427</v>
       </c>
       <c r="F132" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G132" t="s">
-        <v>293</v>
-      </c>
-      <c r="H132" t="s">
-        <v>330</v>
+        <v>163</v>
+      </c>
+      <c r="H132">
+        <v>18</v>
       </c>
       <c r="I132" s="2">
         <v>44621.4409375</v>
       </c>
       <c r="J132" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K132">
         <v>10</v>
@@ -5210,23 +4709,23 @@
       <c r="B133" t="s">
         <v>142</v>
       </c>
-      <c r="C133" t="s">
-        <v>282</v>
+      <c r="C133">
+        <v>835143006479</v>
       </c>
       <c r="F133" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G133" t="s">
-        <v>293</v>
-      </c>
-      <c r="H133" t="s">
-        <v>295</v>
+        <v>163</v>
+      </c>
+      <c r="H133">
+        <v>20</v>
       </c>
       <c r="I133" s="2">
         <v>44621.44111111111</v>
       </c>
       <c r="J133" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K133">
         <v>10</v>
@@ -5239,23 +4738,23 @@
       <c r="B134" t="s">
         <v>143</v>
       </c>
-      <c r="C134" t="s">
-        <v>283</v>
+      <c r="C134">
+        <v>4901111740198</v>
       </c>
       <c r="F134" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G134" t="s">
-        <v>293</v>
-      </c>
-      <c r="H134" t="s">
-        <v>312</v>
+        <v>163</v>
+      </c>
+      <c r="H134">
+        <v>12</v>
       </c>
       <c r="I134" s="2">
         <v>44621.4415162037</v>
       </c>
       <c r="J134" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K134">
         <v>10</v>
@@ -5268,23 +4767,23 @@
       <c r="B135" t="s">
         <v>144</v>
       </c>
-      <c r="C135" t="s">
-        <v>284</v>
+      <c r="C135">
+        <v>4901184090527</v>
       </c>
       <c r="F135" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G135" t="s">
-        <v>293</v>
-      </c>
-      <c r="H135" t="s">
-        <v>312</v>
+        <v>163</v>
+      </c>
+      <c r="H135">
+        <v>12</v>
       </c>
       <c r="I135" s="2">
         <v>44621.4415162037</v>
       </c>
       <c r="J135" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K135">
         <v>10</v>
@@ -5297,23 +4796,23 @@
       <c r="B136" t="s">
         <v>145</v>
       </c>
-      <c r="C136" t="s">
-        <v>285</v>
+      <c r="C136">
+        <v>4972370403056</v>
       </c>
       <c r="F136" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G136" t="s">
-        <v>293</v>
-      </c>
-      <c r="H136" t="s">
-        <v>312</v>
+        <v>163</v>
+      </c>
+      <c r="H136">
+        <v>12</v>
       </c>
       <c r="I136" s="2">
         <v>44621.4415162037</v>
       </c>
       <c r="J136" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K136">
         <v>10</v>
@@ -5326,23 +4825,23 @@
       <c r="B137" t="s">
         <v>146</v>
       </c>
-      <c r="C137" t="s">
-        <v>286</v>
+      <c r="C137">
+        <v>4901111368521</v>
       </c>
       <c r="F137" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G137" t="s">
-        <v>293</v>
-      </c>
-      <c r="H137" t="s">
-        <v>298</v>
+        <v>163</v>
+      </c>
+      <c r="H137">
+        <v>30</v>
       </c>
       <c r="I137" s="2">
         <v>44621.44164351852</v>
       </c>
       <c r="J137" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K137">
         <v>10</v>
@@ -5355,23 +4854,23 @@
       <c r="B138" t="s">
         <v>147</v>
       </c>
-      <c r="C138" t="s">
-        <v>287</v>
+      <c r="C138">
+        <v>4901027533815</v>
       </c>
       <c r="F138" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G138" t="s">
-        <v>293</v>
-      </c>
-      <c r="H138" t="s">
-        <v>295</v>
+        <v>163</v>
+      </c>
+      <c r="H138">
+        <v>20</v>
       </c>
       <c r="I138" s="2">
         <v>44621.44268518518</v>
       </c>
       <c r="J138" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K138">
         <v>10</v>
@@ -5384,23 +4883,23 @@
       <c r="B139" t="s">
         <v>148</v>
       </c>
-      <c r="C139" t="s">
-        <v>288</v>
+      <c r="C139">
+        <v>4903101131511</v>
       </c>
       <c r="F139" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G139" t="s">
-        <v>293</v>
-      </c>
-      <c r="H139" t="s">
-        <v>296</v>
+        <v>163</v>
+      </c>
+      <c r="H139">
+        <v>15</v>
       </c>
       <c r="I139" s="2">
         <v>44621.44297453704</v>
       </c>
       <c r="J139" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K139">
         <v>10</v>
@@ -5413,23 +4912,23 @@
       <c r="B140" t="s">
         <v>149</v>
       </c>
-      <c r="C140" t="s">
-        <v>289</v>
+      <c r="C140">
+        <v>4582100128281</v>
       </c>
       <c r="F140" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G140" t="s">
-        <v>293</v>
-      </c>
-      <c r="H140" t="s">
-        <v>325</v>
+        <v>163</v>
+      </c>
+      <c r="H140">
+        <v>24</v>
       </c>
       <c r="I140" s="2">
         <v>44621.44297453704</v>
       </c>
       <c r="J140" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K140">
         <v>10</v>
@@ -5442,23 +4941,23 @@
       <c r="B141" t="s">
         <v>150</v>
       </c>
-      <c r="C141" t="s">
-        <v>290</v>
+      <c r="C141">
+        <v>4902110250831</v>
       </c>
       <c r="F141" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G141" t="s">
-        <v>293</v>
-      </c>
-      <c r="H141" t="s">
-        <v>319</v>
+        <v>163</v>
+      </c>
+      <c r="H141">
+        <v>160</v>
       </c>
       <c r="I141" s="2">
         <v>44621.44300925926</v>
       </c>
       <c r="J141" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K141">
         <v>10</v>
@@ -5471,23 +4970,23 @@
       <c r="B142" t="s">
         <v>151</v>
       </c>
-      <c r="C142" t="s">
-        <v>291</v>
+      <c r="C142">
+        <v>4716609870017</v>
       </c>
       <c r="F142" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="G142" t="s">
-        <v>293</v>
-      </c>
-      <c r="H142" t="s">
-        <v>315</v>
+        <v>163</v>
+      </c>
+      <c r="H142">
+        <v>72</v>
       </c>
       <c r="I142" s="2">
         <v>44621.44311342593</v>
       </c>
       <c r="J142" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="K142">
         <v>10</v>
